--- a/data/pliegos.xlsx
+++ b/data/pliegos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F5E540-AACF-48B1-816F-E096318EB7D4}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391A891B-076F-4F16-A86D-36EAAB1A66B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11105,14 +11105,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1860" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1892"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
